--- a/po_analysis_by_asin/B0CSJV61BN_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJV61BN_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>330</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>150</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>810</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>400</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>40</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>110</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>480</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>420</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>120</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>580</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>820</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>200</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>100</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>420</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>540</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>400</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>180</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>60</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>1620</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>40</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>460</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>140</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>80</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>540</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>2420</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>2160</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>600</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>1290</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>550</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>1600</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>1120</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>1600</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>1660</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>680</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>5120</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>600</v>

--- a/po_analysis_by_asin/B0CSJV61BN_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJV61BN_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -701,7 +702,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -783,6 +784,551 @@
       </c>
       <c r="B11" t="n">
         <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>64</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-644.8464440196043</v>
+      </c>
+      <c r="D2" t="n">
+        <v>798.2887908857468</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>105</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-548.4108590788097</v>
+      </c>
+      <c r="D3" t="n">
+        <v>836.6306896970494</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>126</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-588.8944470351353</v>
+      </c>
+      <c r="D4" t="n">
+        <v>812.307520138449</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>167</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-510.0683514502867</v>
+      </c>
+      <c r="D5" t="n">
+        <v>864.2883804374235</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>188</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-474.936317688177</v>
+      </c>
+      <c r="D6" t="n">
+        <v>856.7286697409528</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>208</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-461.525415591232</v>
+      </c>
+      <c r="D7" t="n">
+        <v>898.5853937791901</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>229</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-445.005412811373</v>
+      </c>
+      <c r="D8" t="n">
+        <v>881.667935894822</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>352</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-291.2590316997014</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1074.924800920107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>393</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-276.1856648451276</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1103.93157259332</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>414</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-260.5592849257087</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1117.707258705977</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>434</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-237.7544814948554</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1137.588245278144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>475</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-186.1918071625985</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1105.306287322947</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>496</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-190.3278084714825</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1154.918811252843</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>517</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-216.4804036609116</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1189.517707385586</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>537</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-158.1082561236182</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1213.853311806576</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>558</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-78.91383973806002</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1282.033045242702</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>578</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-69.8271760656192</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1201.857415658654</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>599</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-97.47732997127233</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1270.621683277453</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>619</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-71.85794322542269</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1273.025405627073</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>681</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-30.2438870268317</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1406.331790503366</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>702</v>
+      </c>
+      <c r="C22" t="n">
+        <v>52.90563972202438</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1397.053898542548</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>722</v>
+      </c>
+      <c r="C23" t="n">
+        <v>16.2672424605577</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1396.192909763779</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>743</v>
+      </c>
+      <c r="C24" t="n">
+        <v>64.97535903943036</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1413.423378857597</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>784</v>
+      </c>
+      <c r="C25" t="n">
+        <v>83.71288839213392</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1481.730694538099</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>805</v>
+      </c>
+      <c r="C26" t="n">
+        <v>71.99045920885244</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1456.276497378261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>866</v>
+      </c>
+      <c r="C27" t="n">
+        <v>103.2102338275231</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1551.689865190599</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>887</v>
+      </c>
+      <c r="C28" t="n">
+        <v>258.6410408341284</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1547.256331541648</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>928</v>
+      </c>
+      <c r="C29" t="n">
+        <v>198.4307432615962</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1620.932958302436</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>949</v>
+      </c>
+      <c r="C30" t="n">
+        <v>263.5166481595454</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1594.603342233498</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>969</v>
+      </c>
+      <c r="C31" t="n">
+        <v>230.6846825930001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1630.024111042661</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>990</v>
+      </c>
+      <c r="C32" t="n">
+        <v>307.5101290241762</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1653.474379929041</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C33" t="n">
+        <v>350.1838816279779</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1721.7444893009</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C34" t="n">
+        <v>303.3474059943389</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1706.854466069867</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1051</v>
+      </c>
+      <c r="C35" t="n">
+        <v>391.488078088915</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1744.981548179792</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1072</v>
+      </c>
+      <c r="C36" t="n">
+        <v>374.1903571163962</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1762.532757665545</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1093</v>
+      </c>
+      <c r="C37" t="n">
+        <v>435.4905147058968</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1757.180887716079</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSJV61BN_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJV61BN_po_data.xlsx
@@ -797,7 +797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,16 +816,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -834,12 +824,6 @@
       <c r="B2" t="n">
         <v>64</v>
       </c>
-      <c r="C2" t="n">
-        <v>-644.8464440196043</v>
-      </c>
-      <c r="D2" t="n">
-        <v>798.2887908857468</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -848,12 +832,6 @@
       <c r="B3" t="n">
         <v>105</v>
       </c>
-      <c r="C3" t="n">
-        <v>-548.4108590788097</v>
-      </c>
-      <c r="D3" t="n">
-        <v>836.6306896970494</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -862,12 +840,6 @@
       <c r="B4" t="n">
         <v>126</v>
       </c>
-      <c r="C4" t="n">
-        <v>-588.8944470351353</v>
-      </c>
-      <c r="D4" t="n">
-        <v>812.307520138449</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -876,12 +848,6 @@
       <c r="B5" t="n">
         <v>167</v>
       </c>
-      <c r="C5" t="n">
-        <v>-510.0683514502867</v>
-      </c>
-      <c r="D5" t="n">
-        <v>864.2883804374235</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -890,12 +856,6 @@
       <c r="B6" t="n">
         <v>188</v>
       </c>
-      <c r="C6" t="n">
-        <v>-474.936317688177</v>
-      </c>
-      <c r="D6" t="n">
-        <v>856.7286697409528</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -904,12 +864,6 @@
       <c r="B7" t="n">
         <v>208</v>
       </c>
-      <c r="C7" t="n">
-        <v>-461.525415591232</v>
-      </c>
-      <c r="D7" t="n">
-        <v>898.5853937791901</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -918,12 +872,6 @@
       <c r="B8" t="n">
         <v>229</v>
       </c>
-      <c r="C8" t="n">
-        <v>-445.005412811373</v>
-      </c>
-      <c r="D8" t="n">
-        <v>881.667935894822</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -932,12 +880,6 @@
       <c r="B9" t="n">
         <v>352</v>
       </c>
-      <c r="C9" t="n">
-        <v>-291.2590316997014</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1074.924800920107</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -946,12 +888,6 @@
       <c r="B10" t="n">
         <v>393</v>
       </c>
-      <c r="C10" t="n">
-        <v>-276.1856648451276</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1103.93157259332</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -960,12 +896,6 @@
       <c r="B11" t="n">
         <v>414</v>
       </c>
-      <c r="C11" t="n">
-        <v>-260.5592849257087</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1117.707258705977</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -974,12 +904,6 @@
       <c r="B12" t="n">
         <v>434</v>
       </c>
-      <c r="C12" t="n">
-        <v>-237.7544814948554</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1137.588245278144</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -988,12 +912,6 @@
       <c r="B13" t="n">
         <v>475</v>
       </c>
-      <c r="C13" t="n">
-        <v>-186.1918071625985</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1105.306287322947</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1002,12 +920,6 @@
       <c r="B14" t="n">
         <v>496</v>
       </c>
-      <c r="C14" t="n">
-        <v>-190.3278084714825</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1154.918811252843</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1016,12 +928,6 @@
       <c r="B15" t="n">
         <v>517</v>
       </c>
-      <c r="C15" t="n">
-        <v>-216.4804036609116</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1189.517707385586</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1030,12 +936,6 @@
       <c r="B16" t="n">
         <v>537</v>
       </c>
-      <c r="C16" t="n">
-        <v>-158.1082561236182</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1213.853311806576</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1044,12 +944,6 @@
       <c r="B17" t="n">
         <v>558</v>
       </c>
-      <c r="C17" t="n">
-        <v>-78.91383973806002</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1282.033045242702</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1058,12 +952,6 @@
       <c r="B18" t="n">
         <v>578</v>
       </c>
-      <c r="C18" t="n">
-        <v>-69.8271760656192</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1201.857415658654</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1072,12 +960,6 @@
       <c r="B19" t="n">
         <v>599</v>
       </c>
-      <c r="C19" t="n">
-        <v>-97.47732997127233</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1270.621683277453</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1086,12 +968,6 @@
       <c r="B20" t="n">
         <v>619</v>
       </c>
-      <c r="C20" t="n">
-        <v>-71.85794322542269</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1273.025405627073</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1100,12 +976,6 @@
       <c r="B21" t="n">
         <v>681</v>
       </c>
-      <c r="C21" t="n">
-        <v>-30.2438870268317</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1406.331790503366</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1114,12 +984,6 @@
       <c r="B22" t="n">
         <v>702</v>
       </c>
-      <c r="C22" t="n">
-        <v>52.90563972202438</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1397.053898542548</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1128,12 +992,6 @@
       <c r="B23" t="n">
         <v>722</v>
       </c>
-      <c r="C23" t="n">
-        <v>16.2672424605577</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1396.192909763779</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1142,12 +1000,6 @@
       <c r="B24" t="n">
         <v>743</v>
       </c>
-      <c r="C24" t="n">
-        <v>64.97535903943036</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1413.423378857597</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1156,12 +1008,6 @@
       <c r="B25" t="n">
         <v>784</v>
       </c>
-      <c r="C25" t="n">
-        <v>83.71288839213392</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1481.730694538099</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1170,12 +1016,6 @@
       <c r="B26" t="n">
         <v>805</v>
       </c>
-      <c r="C26" t="n">
-        <v>71.99045920885244</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1456.276497378261</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1184,12 +1024,6 @@
       <c r="B27" t="n">
         <v>866</v>
       </c>
-      <c r="C27" t="n">
-        <v>103.2102338275231</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1551.689865190599</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1198,12 +1032,6 @@
       <c r="B28" t="n">
         <v>887</v>
       </c>
-      <c r="C28" t="n">
-        <v>258.6410408341284</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1547.256331541648</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1212,12 +1040,6 @@
       <c r="B29" t="n">
         <v>928</v>
       </c>
-      <c r="C29" t="n">
-        <v>198.4307432615962</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1620.932958302436</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1226,12 +1048,6 @@
       <c r="B30" t="n">
         <v>949</v>
       </c>
-      <c r="C30" t="n">
-        <v>263.5166481595454</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1594.603342233498</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1240,12 +1056,6 @@
       <c r="B31" t="n">
         <v>969</v>
       </c>
-      <c r="C31" t="n">
-        <v>230.6846825930001</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1630.024111042661</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1254,12 +1064,6 @@
       <c r="B32" t="n">
         <v>990</v>
       </c>
-      <c r="C32" t="n">
-        <v>307.5101290241762</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1653.474379929041</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1268,12 +1072,6 @@
       <c r="B33" t="n">
         <v>1010</v>
       </c>
-      <c r="C33" t="n">
-        <v>350.1838816279779</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1721.7444893009</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1282,12 +1080,6 @@
       <c r="B34" t="n">
         <v>1031</v>
       </c>
-      <c r="C34" t="n">
-        <v>303.3474059943389</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1706.854466069867</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1296,12 +1088,6 @@
       <c r="B35" t="n">
         <v>1051</v>
       </c>
-      <c r="C35" t="n">
-        <v>391.488078088915</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1744.981548179792</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1310,12 +1096,6 @@
       <c r="B36" t="n">
         <v>1072</v>
       </c>
-      <c r="C36" t="n">
-        <v>374.1903571163962</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1762.532757665545</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1323,12 +1103,6 @@
       </c>
       <c r="B37" t="n">
         <v>1093</v>
-      </c>
-      <c r="C37" t="n">
-        <v>435.4905147058968</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1757.180887716079</v>
       </c>
     </row>
   </sheetData>
